--- a/Tables for data for each city/Tables for Each City.xlsx
+++ b/Tables for data for each city/Tables for Each City.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8chas\Documents\CURO-GICH-\Tables for data for each city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F917C5-F02D-4690-8C1E-976DCA73A039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B41B62-4B6D-4A3A-B3C8-EE3B788B5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2182,7 +2182,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hartwell!$F$21</c:f>
+              <c:f>Hartwell!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2258,7 +2258,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hartwell!$B$22:$B$24</c:f>
+              <c:f>Hartwell!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2275,7 +2275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hartwell!$F$22:$F$24</c:f>
+              <c:f>Hartwell!$V$2:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2302,7 +2302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hartwell!$G$21</c:f>
+              <c:f>Hartwell!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2378,7 +2378,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hartwell!$B$22:$B$24</c:f>
+              <c:f>Hartwell!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2395,7 +2395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hartwell!$G$22:$G$24</c:f>
+              <c:f>Hartwell!$W$2:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2422,7 +2422,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hartwell!$H$21</c:f>
+              <c:f>Hartwell!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2498,7 +2498,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hartwell!$B$22:$B$24</c:f>
+              <c:f>Hartwell!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2515,7 +2515,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hartwell!$H$22:$H$24</c:f>
+              <c:f>Hartwell!$X$2:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3856,7 +3856,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gainesville!$D$21</c:f>
+              <c:f>Gainesville!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3932,7 +3932,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Gainesville!$B$22:$B$24</c:f>
+              <c:f>Gainesville!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3949,7 +3949,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gainesville!$D$22:$D$24</c:f>
+              <c:f>Gainesville!$T$2:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3976,7 +3976,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Gainesville!$E$21</c:f>
+              <c:f>Gainesville!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4052,7 +4052,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Gainesville!$B$22:$B$24</c:f>
+              <c:f>Gainesville!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4069,7 +4069,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gainesville!$E$22:$E$24</c:f>
+              <c:f>Gainesville!$U$2:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5650,7 +5650,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Commerce!$F$22</c:f>
+              <c:f>Commerce!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5726,7 +5726,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Commerce!$B$23:$B$25</c:f>
+              <c:f>Commerce!$T$2:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5743,7 +5743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Commerce!$F$23:$F$25</c:f>
+              <c:f>Commerce!$X$2:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5770,7 +5770,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Commerce!$G$22</c:f>
+              <c:f>Commerce!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5846,7 +5846,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Commerce!$B$23:$B$25</c:f>
+              <c:f>Commerce!$T$2:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5863,7 +5863,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Commerce!$G$23:$G$25</c:f>
+              <c:f>Commerce!$Y$2:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5890,7 +5890,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Commerce!$H$22</c:f>
+              <c:f>Commerce!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5966,7 +5966,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Commerce!$B$23:$B$25</c:f>
+              <c:f>Commerce!$T$2:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5983,7 +5983,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Commerce!$H$23:$H$25</c:f>
+              <c:f>Commerce!$Z$2:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6908,7 +6908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Warrenton!$E$22</c:f>
+              <c:f>Warrenton!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6984,7 +6984,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Warrenton!$A$23:$A$25</c:f>
+              <c:f>Warrenton!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7001,7 +7001,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Warrenton!$E$23:$E$25</c:f>
+              <c:f>Warrenton!$V$2:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7028,7 +7028,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Warrenton!$F$22</c:f>
+              <c:f>Warrenton!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7104,7 +7104,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Warrenton!$A$23:$A$25</c:f>
+              <c:f>Warrenton!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7121,7 +7121,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Warrenton!$F$23:$F$25</c:f>
+              <c:f>Warrenton!$W$2:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7148,7 +7148,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Warrenton!$G$22</c:f>
+              <c:f>Warrenton!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7224,7 +7224,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Warrenton!$A$23:$A$25</c:f>
+              <c:f>Warrenton!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7241,7 +7241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Warrenton!$G$23:$G$25</c:f>
+              <c:f>Warrenton!$X$2:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8202,7 +8202,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cochran!$F$23</c:f>
+              <c:f>Cochran!$X$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8278,7 +8278,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cochran!$B$24:$B$26</c:f>
+              <c:f>Cochran!$T$2:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8295,7 +8295,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cochran!$F$24:$F$26</c:f>
+              <c:f>Cochran!$X$2:$X$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8322,7 +8322,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cochran!$G$23</c:f>
+              <c:f>Cochran!$Y$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8398,7 +8398,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cochran!$B$24:$B$26</c:f>
+              <c:f>Cochran!$T$2:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8415,7 +8415,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cochran!$G$24:$G$26</c:f>
+              <c:f>Cochran!$Y$2:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8442,7 +8442,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Cochran!$H$23</c:f>
+              <c:f>Cochran!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8518,7 +8518,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Cochran!$B$24:$B$26</c:f>
+              <c:f>Cochran!$T$2:$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8535,7 +8535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Cochran!$H$24:$H$26</c:f>
+              <c:f>Cochran!$Z$2:$Z$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10330,7 +10330,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monroe!$D$22</c:f>
+              <c:f>Monroe!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10406,7 +10406,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Monroe!$B$23:$B$25</c:f>
+              <c:f>Monroe!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10423,7 +10423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monroe!$D$23:$D$25</c:f>
+              <c:f>Monroe!$T$2:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -10450,7 +10450,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Monroe!$E$22</c:f>
+              <c:f>Monroe!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10526,7 +10526,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Monroe!$B$23:$B$25</c:f>
+              <c:f>Monroe!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -10543,7 +10543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Monroe!$E$23:$E$25</c:f>
+              <c:f>Monroe!$U$2:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -11884,7 +11884,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Millen!$D$23</c:f>
+              <c:f>Millen!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11960,7 +11960,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Millen!$B$24:$B$26</c:f>
+              <c:f>Millen!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -11977,7 +11977,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Millen!$D$24:$D$26</c:f>
+              <c:f>Millen!$T$2:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -12004,7 +12004,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Millen!$E$23</c:f>
+              <c:f>Millen!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12080,7 +12080,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Millen!$B$24:$B$26</c:f>
+              <c:f>Millen!$R$2:$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -12097,7 +12097,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Millen!$E$24:$E$26</c:f>
+              <c:f>Millen!$U$2:$U$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -23766,14 +23766,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -23801,16 +23801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23950,16 +23950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24063,16 +24063,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24176,16 +24176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24289,16 +24289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24402,16 +24402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24515,16 +24515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24831,15 +24831,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24885,8 +24885,29 @@
       <c r="P1" t="s">
         <v>2</v>
       </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -24932,8 +24953,29 @@
       <c r="P2">
         <v>1.5</v>
       </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="T2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="U2">
+        <v>4.2</v>
+      </c>
+      <c r="V2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="W2">
+        <v>0.8</v>
+      </c>
+      <c r="X2">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -24979,8 +25021,29 @@
       <c r="P3">
         <v>11</v>
       </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="T3">
+        <v>8.6</v>
+      </c>
+      <c r="U3">
+        <v>4.8</v>
+      </c>
+      <c r="V3">
+        <v>7.9</v>
+      </c>
+      <c r="W3">
+        <v>5.5</v>
+      </c>
+      <c r="X3">
+        <v>5.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>11</v>
       </c>
@@ -25002,8 +25065,29 @@
       <c r="P4">
         <v>4.0999999999999996</v>
       </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>61.9</v>
+      </c>
+      <c r="T4">
+        <v>5.9</v>
+      </c>
+      <c r="U4">
+        <v>2.5</v>
+      </c>
+      <c r="V4">
+        <v>10.9</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>15.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>12</v>
       </c>
@@ -25024,98 +25108,6 @@
       </c>
       <c r="P5">
         <v>18.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="C23">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D23">
-        <v>4.2</v>
-      </c>
-      <c r="E23">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F23">
-        <v>0.8</v>
-      </c>
-      <c r="G23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="C24">
-        <v>8.6</v>
-      </c>
-      <c r="D24">
-        <v>4.8</v>
-      </c>
-      <c r="E24">
-        <v>7.9</v>
-      </c>
-      <c r="F24">
-        <v>5.5</v>
-      </c>
-      <c r="G24">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>61.9</v>
-      </c>
-      <c r="C25">
-        <v>5.9</v>
-      </c>
-      <c r="D25">
-        <v>2.5</v>
-      </c>
-      <c r="E25">
-        <v>10.9</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -25127,15 +25119,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D364D1B-B80D-4395-A5C9-D27C70B1D956}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="Q1" sqref="Q1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25166,8 +25158,23 @@
       <c r="M1" t="s">
         <v>17</v>
       </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -25198,8 +25205,23 @@
       <c r="M2">
         <v>4.8</v>
       </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>84.8</v>
+      </c>
+      <c r="T2">
+        <v>10.4</v>
+      </c>
+      <c r="U2">
+        <v>4.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -25230,8 +25252,23 @@
       <c r="M3">
         <v>9.1</v>
       </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>59.6</v>
+      </c>
+      <c r="T3">
+        <v>21.5</v>
+      </c>
+      <c r="U3">
+        <v>18.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -25247,8 +25284,23 @@
       <c r="M4">
         <v>21</v>
       </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="T4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>20</v>
       </c>
@@ -25263,74 +25315,6 @@
       </c>
       <c r="M5">
         <v>12.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>84.8</v>
-      </c>
-      <c r="D23">
-        <v>10.4</v>
-      </c>
-      <c r="E23">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>59.6</v>
-      </c>
-      <c r="D24">
-        <v>21.5</v>
-      </c>
-      <c r="E24">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="D25">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -25341,15 +25325,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5998037B-3B53-4AF7-BF33-22EDFAE50014}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25380,8 +25364,23 @@
       <c r="M1" t="s">
         <v>17</v>
       </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -25412,8 +25411,23 @@
       <c r="M2">
         <v>17.5</v>
       </c>
+      <c r="Q2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="T2">
+        <v>12.3</v>
+      </c>
+      <c r="U2">
+        <v>17.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -25444,8 +25458,23 @@
       <c r="M3">
         <v>29.3</v>
       </c>
+      <c r="Q3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>31.1</v>
+      </c>
+      <c r="T3">
+        <v>24.4</v>
+      </c>
+      <c r="U3">
+        <v>44.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>22</v>
       </c>
@@ -25461,8 +25490,23 @@
       <c r="M4">
         <v>49.6</v>
       </c>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>51.8</v>
+      </c>
+      <c r="T4">
+        <v>19.3</v>
+      </c>
+      <c r="U4">
+        <v>28.9</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>22</v>
       </c>
@@ -25477,74 +25521,6 @@
       </c>
       <c r="M5">
         <v>27.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="D24">
-        <v>12.3</v>
-      </c>
-      <c r="E24">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>31.1</v>
-      </c>
-      <c r="D25">
-        <v>24.4</v>
-      </c>
-      <c r="E25">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>51.8</v>
-      </c>
-      <c r="D26">
-        <v>19.3</v>
-      </c>
-      <c r="E26">
-        <v>28.9</v>
       </c>
     </row>
   </sheetData>
@@ -25555,15 +25531,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BCEC41-5FD6-421D-AB99-F5E00E0B46ED}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:H24"/>
+      <selection activeCell="Q1" sqref="Q1:X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -25606,8 +25582,32 @@
       <c r="O1" t="s">
         <v>2</v>
       </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -25650,8 +25650,32 @@
       <c r="O2">
         <v>3.2</v>
       </c>
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>37.1</v>
+      </c>
+      <c r="T2">
+        <v>29.8</v>
+      </c>
+      <c r="U2">
+        <v>10.5</v>
+      </c>
+      <c r="V2">
+        <v>17.7</v>
+      </c>
+      <c r="W2">
+        <v>1.6</v>
+      </c>
+      <c r="X2">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -25694,8 +25718,32 @@
       <c r="O3">
         <v>6.2</v>
       </c>
+      <c r="Q3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>31.6</v>
+      </c>
+      <c r="T3">
+        <v>20.2</v>
+      </c>
+      <c r="U3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V3">
+        <v>23.8</v>
+      </c>
+      <c r="W3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X3">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>11</v>
       </c>
@@ -25717,8 +25765,32 @@
       <c r="O4">
         <v>7.8</v>
       </c>
+      <c r="Q4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>19.3</v>
+      </c>
+      <c r="T4">
+        <v>19.3</v>
+      </c>
+      <c r="U4">
+        <v>15.9</v>
+      </c>
+      <c r="V4">
+        <v>30.7</v>
+      </c>
+      <c r="W4">
+        <v>6.8</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>12</v>
       </c>
@@ -25739,110 +25811,6 @@
       </c>
       <c r="O5">
         <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>37.1</v>
-      </c>
-      <c r="D22">
-        <v>29.8</v>
-      </c>
-      <c r="E22">
-        <v>10.5</v>
-      </c>
-      <c r="F22">
-        <v>17.7</v>
-      </c>
-      <c r="G22">
-        <v>1.6</v>
-      </c>
-      <c r="H22">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>31.6</v>
-      </c>
-      <c r="D23">
-        <v>20.2</v>
-      </c>
-      <c r="E23">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F23">
-        <v>23.8</v>
-      </c>
-      <c r="G23">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H23">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>19.3</v>
-      </c>
-      <c r="D24">
-        <v>19.3</v>
-      </c>
-      <c r="E24">
-        <v>15.9</v>
-      </c>
-      <c r="F24">
-        <v>30.7</v>
-      </c>
-      <c r="G24">
-        <v>6.8</v>
-      </c>
-      <c r="H24">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -25853,15 +25821,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7265C983-1CF3-487F-A266-91FDC6CAB920}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="Q1" sqref="Q1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25892,8 +25860,23 @@
       <c r="M1" t="s">
         <v>17</v>
       </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -25924,8 +25907,23 @@
       <c r="M2">
         <v>1.6</v>
       </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2">
+        <v>73.8</v>
+      </c>
+      <c r="T2">
+        <v>24.6</v>
+      </c>
+      <c r="U2">
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -25956,8 +25954,23 @@
       <c r="M3">
         <v>6.2</v>
       </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3">
+        <v>53.1</v>
+      </c>
+      <c r="T3">
+        <v>37.9</v>
+      </c>
+      <c r="U3">
+        <v>9.1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>25</v>
       </c>
@@ -25973,8 +25986,23 @@
       <c r="M4">
         <v>12.8</v>
       </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>71</v>
+      </c>
+      <c r="T4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U4">
+        <v>9.6999999999999993</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>25</v>
       </c>
@@ -25989,74 +26017,6 @@
       </c>
       <c r="M5">
         <v>15.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>73.8</v>
-      </c>
-      <c r="D22">
-        <v>24.6</v>
-      </c>
-      <c r="E22">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>53.1</v>
-      </c>
-      <c r="D23">
-        <v>37.9</v>
-      </c>
-      <c r="E23">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>71</v>
-      </c>
-      <c r="D24">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E24">
-        <v>9.6999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -26067,15 +26027,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C86677C-BF71-4E0D-BA9B-25F0EFB7AEFE}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" activeCellId="1" sqref="B22:B25 F22:H25"/>
+      <selection activeCell="S1" sqref="S1:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26124,8 +26084,32 @@
       <c r="Q1" t="s">
         <v>2</v>
       </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -26174,8 +26158,32 @@
       <c r="Q2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>73.2</v>
+      </c>
+      <c r="V2">
+        <v>9.4</v>
+      </c>
+      <c r="W2">
+        <v>5.7</v>
+      </c>
+      <c r="X2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Y2">
+        <v>0.8</v>
+      </c>
+      <c r="Z2">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -26224,8 +26232,32 @@
       <c r="Q3">
         <v>3.2</v>
       </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="V3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="X3">
+        <v>10.7</v>
+      </c>
+      <c r="Y3">
+        <v>0.9</v>
+      </c>
+      <c r="Z3">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>26</v>
       </c>
@@ -26250,8 +26282,32 @@
       <c r="Q4">
         <v>5.6</v>
       </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4">
+        <v>42.2</v>
+      </c>
+      <c r="V4">
+        <v>17.2</v>
+      </c>
+      <c r="W4">
+        <v>11.2</v>
+      </c>
+      <c r="X4">
+        <v>17.2</v>
+      </c>
+      <c r="Y4">
+        <v>3.4</v>
+      </c>
+      <c r="Z4">
+        <v>8.6</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>26</v>
       </c>
@@ -26275,110 +26331,6 @@
       </c>
       <c r="Q5">
         <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23">
-        <v>73.2</v>
-      </c>
-      <c r="D23">
-        <v>9.4</v>
-      </c>
-      <c r="E23">
-        <v>5.7</v>
-      </c>
-      <c r="F23">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G23">
-        <v>0.8</v>
-      </c>
-      <c r="H23">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="D24">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E24">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F24">
-        <v>10.7</v>
-      </c>
-      <c r="G24">
-        <v>0.9</v>
-      </c>
-      <c r="H24">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>42.2</v>
-      </c>
-      <c r="D25">
-        <v>17.2</v>
-      </c>
-      <c r="E25">
-        <v>11.2</v>
-      </c>
-      <c r="F25">
-        <v>17.2</v>
-      </c>
-      <c r="G25">
-        <v>3.4</v>
-      </c>
-      <c r="H25">
-        <v>8.6</v>
       </c>
     </row>
   </sheetData>
@@ -26389,15 +26341,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2754A4-9F16-4FC5-BE77-812A9A7F67BB}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26446,8 +26398,32 @@
       <c r="Q1" t="s">
         <v>2</v>
       </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -26496,8 +26472,32 @@
       <c r="Q2">
         <v>3.6</v>
       </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>61.6</v>
+      </c>
+      <c r="V2">
+        <v>13.9</v>
+      </c>
+      <c r="W2">
+        <v>7.1</v>
+      </c>
+      <c r="X2">
+        <v>10.5</v>
+      </c>
+      <c r="Y2">
+        <v>3.4</v>
+      </c>
+      <c r="Z2">
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -26546,8 +26546,32 @@
       <c r="Q3">
         <v>7.5</v>
       </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3">
+        <v>44.1</v>
+      </c>
+      <c r="V3">
+        <v>13.9</v>
+      </c>
+      <c r="W3">
+        <v>9</v>
+      </c>
+      <c r="X3">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>5.8</v>
+      </c>
+      <c r="Z3">
+        <v>6.7</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
         <v>27</v>
       </c>
@@ -26572,8 +26596,32 @@
       <c r="Q4">
         <v>7.8</v>
       </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4">
+        <v>28.2</v>
+      </c>
+      <c r="V4">
+        <v>12.1</v>
+      </c>
+      <c r="W4">
+        <v>10.1</v>
+      </c>
+      <c r="X4">
+        <v>26.8</v>
+      </c>
+      <c r="Y4">
+        <v>7.4</v>
+      </c>
+      <c r="Z4">
+        <v>15.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="J5" t="s">
         <v>27</v>
       </c>
@@ -26597,110 +26645,6 @@
       </c>
       <c r="Q5">
         <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>61.6</v>
-      </c>
-      <c r="D24">
-        <v>13.9</v>
-      </c>
-      <c r="E24">
-        <v>7.1</v>
-      </c>
-      <c r="F24">
-        <v>10.5</v>
-      </c>
-      <c r="G24">
-        <v>3.4</v>
-      </c>
-      <c r="H24">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25">
-        <v>44.1</v>
-      </c>
-      <c r="D25">
-        <v>13.9</v>
-      </c>
-      <c r="E25">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G25">
-        <v>5.8</v>
-      </c>
-      <c r="H25">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>28.2</v>
-      </c>
-      <c r="D26">
-        <v>12.1</v>
-      </c>
-      <c r="E26">
-        <v>10.1</v>
-      </c>
-      <c r="F26">
-        <v>26.8</v>
-      </c>
-      <c r="G26">
-        <v>7.4</v>
-      </c>
-      <c r="H26">
-        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/Tables for data for each city/Tables for Each City.xlsx
+++ b/Tables for data for each city/Tables for Each City.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8chas\Documents\CURO-GICH-\Tables for data for each city\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B41B62-4B6D-4A3A-B3C8-EE3B788B5DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F9C6CE-03ED-400A-97AF-1562EF216F7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warrenton" sheetId="1" r:id="rId1"/>
@@ -24833,7 +24833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
@@ -25121,7 +25121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D364D1B-B80D-4395-A5C9-D27C70B1D956}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:U4"/>
     </sheetView>
   </sheetViews>
